--- a/i_codebooks/D3_dispensings_AA.xlsx
+++ b/i_codebooks/D3_dispensings_AA.xlsx
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
-    <sheet name="Data Model" sheetId="2" r:id="rId2"/>
-    <sheet name="Parameters" sheetId="3" r:id="rId3"/>
-    <sheet name="Example" sheetId="4" r:id="rId4"/>
+    <sheet name="Data_model" sheetId="5" r:id="rId2"/>
+    <sheet name="Old Data Model" sheetId="2" r:id="rId3"/>
+    <sheet name="Parameters" sheetId="3" r:id="rId4"/>
+    <sheet name="Example" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>medatata_name</t>
   </si>
@@ -140,6 +141,18 @@
   </si>
   <si>
     <t>number_of_9_vials</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Nvialsday</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>month</t>
   </si>
 </sst>
 </file>
@@ -149,7 +162,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +191,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -310,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -353,6 +372,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -774,13 +796,84 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="78" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -864,7 +957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -893,7 +986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K1:M1"/>
   <sheetViews>
@@ -924,15 +1017,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
-    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1181,27 +1271,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
+    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="797b3a1e-a17b-4ca2-8e72-b47fcb862c81"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="8029070a-695f-410c-a424-24d0683063af"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1226,9 +1310,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="797b3a1e-a17b-4ca2-8e72-b47fcb862c81"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="8029070a-695f-410c-a424-24d0683063af"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/i_codebooks/D3_dispensings_AA.xlsx
+++ b/i_codebooks/D3_dispensings_AA.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>medatata_name</t>
   </si>
@@ -153,6 +153,15 @@
   </si>
   <si>
     <t>month</t>
+  </si>
+  <si>
+    <t>Ndisp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numero di dispensazioni nella data, da ospedali toscani; notare the il numero può essere negativo se vi sono stati più ritiri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">numero di flaconi dispensati nella data, da ospedali toscani; notare the il numero può essere negativo se vi sono stati più ritiri </t>
   </si>
 </sst>
 </file>
@@ -796,13 +805,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="41.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="78" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
@@ -844,18 +856,29 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>37</v>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1017,12 +1040,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
+    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1271,21 +1297,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
-    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="797b3a1e-a17b-4ca2-8e72-b47fcb862c81"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="8029070a-695f-410c-a424-24d0683063af"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1310,18 +1342,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="797b3a1e-a17b-4ca2-8e72-b47fcb862c81"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="8029070a-695f-410c-a424-24d0683063af"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>